--- a/Query Solving Test/new/Product_material.xlsx
+++ b/Query Solving Test/new/Product_material.xlsx
@@ -640,9 +640,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -761,7 +761,7 @@
         <v>64</v>
       </c>
       <c r="D5" s="9">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="E5" s="9">
         <v>20</v>
@@ -788,7 +788,7 @@
         <v>31</v>
       </c>
       <c r="O5" s="9">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>31</v>
       </c>
       <c r="O6" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="1">
         <v>2</v>
@@ -850,7 +850,7 @@
         <v>2</v>
       </c>
       <c r="T6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:20">
@@ -888,7 +888,7 @@
         <v>31</v>
       </c>
       <c r="O7" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="1">
         <v>3</v>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T7" s="1">
         <v>1</v>
@@ -938,7 +938,7 @@
         <v>31</v>
       </c>
       <c r="O8" s="9">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="1">
         <v>4</v>
@@ -947,10 +947,10 @@
         <v>1</v>
       </c>
       <c r="S8" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:20">
@@ -984,7 +984,7 @@
         <v>30</v>
       </c>
       <c r="O9" s="9">
-        <v>230</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="1">
         <v>5</v>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T9" s="1">
         <v>1</v>
@@ -1030,7 +1030,7 @@
         <v>30</v>
       </c>
       <c r="O10" s="9">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="1">
         <v>6</v>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="S10" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T10" s="1">
         <v>1</v>
@@ -1067,16 +1067,16 @@
         <v>31</v>
       </c>
       <c r="O11" s="9">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="Q11" s="1">
         <v>7</v>
       </c>
-      <c r="R11" s="1">
-        <v>1</v>
-      </c>
-      <c r="S11" s="1">
-        <v>10</v>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
+        <v>38</v>
       </c>
       <c r="T11" s="1">
         <v>1</v>
@@ -1104,16 +1104,16 @@
         <v>31</v>
       </c>
       <c r="O12" s="9">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="1">
         <v>8</v>
       </c>
       <c r="R12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T12" s="1">
         <v>1</v>
@@ -1141,19 +1141,19 @@
         <v>31</v>
       </c>
       <c r="O13" s="9">
-        <v>225</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="1">
         <v>9</v>
       </c>
-      <c r="R13" s="2">
-        <v>1</v>
-      </c>
-      <c r="S13" s="2">
-        <v>38</v>
+      <c r="R13" s="1">
+        <v>2</v>
+      </c>
+      <c r="S13" s="1">
+        <v>15</v>
       </c>
       <c r="T13" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:20">
@@ -1172,7 +1172,7 @@
         <v>31</v>
       </c>
       <c r="O14" s="9">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="Q14" s="1">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="S14" s="1">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="T14" s="1">
         <v>1</v>
@@ -1203,7 +1203,7 @@
         <v>31</v>
       </c>
       <c r="O15" s="9">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="Q15" s="1">
         <v>11</v>
@@ -1212,7 +1212,7 @@
         <v>2</v>
       </c>
       <c r="S15" s="1">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="T15" s="1">
         <v>1</v>
@@ -1234,7 +1234,7 @@
         <v>31</v>
       </c>
       <c r="O16" s="9">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="1">
         <v>12</v>
@@ -1243,7 +1243,7 @@
         <v>2</v>
       </c>
       <c r="S16" s="1">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="T16" s="1">
         <v>1</v>
@@ -1265,7 +1265,7 @@
         <v>31</v>
       </c>
       <c r="O17" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="1">
         <v>13</v>
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="S17" s="1">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="T17" s="1">
         <v>1</v>
@@ -1296,16 +1296,16 @@
         <v>31</v>
       </c>
       <c r="O18" s="9">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="Q18" s="1">
         <v>14</v>
       </c>
       <c r="R18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S18" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="T18" s="1">
         <v>1</v>
@@ -1327,16 +1327,16 @@
         <v>30</v>
       </c>
       <c r="O19" s="9">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="Q19" s="1">
         <v>15</v>
       </c>
       <c r="R19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S19" s="1">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="T19" s="1">
         <v>1</v>
@@ -1358,7 +1358,7 @@
         <v>30</v>
       </c>
       <c r="O20" s="9">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="Q20" s="1">
         <v>16</v>
@@ -1367,7 +1367,7 @@
         <v>3</v>
       </c>
       <c r="S20" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T20" s="1">
         <v>1</v>
@@ -1389,7 +1389,7 @@
         <v>30</v>
       </c>
       <c r="O21" s="9">
-        <v>231</v>
+        <v>9</v>
       </c>
       <c r="Q21" s="1">
         <v>17</v>
@@ -1398,7 +1398,7 @@
         <v>3</v>
       </c>
       <c r="S21" s="1">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="T21" s="1">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>31</v>
       </c>
       <c r="O22" s="9">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="1">
         <v>18</v>
@@ -1429,7 +1429,7 @@
         <v>3</v>
       </c>
       <c r="S22" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="T22" s="1">
         <v>1</v>
@@ -1451,7 +1451,7 @@
         <v>31</v>
       </c>
       <c r="O23" s="9">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="Q23" s="1">
         <v>19</v>
@@ -1460,7 +1460,7 @@
         <v>3</v>
       </c>
       <c r="S23" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="T23" s="1">
         <v>1</v>
@@ -1482,7 +1482,7 @@
         <v>31</v>
       </c>
       <c r="O24" s="9">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="Q24" s="1">
         <v>20</v>
@@ -1491,7 +1491,7 @@
         <v>3</v>
       </c>
       <c r="S24" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="T24" s="1">
         <v>1</v>
@@ -1513,7 +1513,7 @@
         <v>31</v>
       </c>
       <c r="O25" s="9">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="1">
         <v>21</v>
@@ -1522,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="S25" s="1">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="T25" s="1">
         <v>1</v>
@@ -1544,16 +1544,16 @@
         <v>31</v>
       </c>
       <c r="O26" s="9">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="Q26" s="1">
         <v>22</v>
       </c>
       <c r="R26" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S26" s="1">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="T26" s="1">
         <v>1</v>
@@ -1575,16 +1575,16 @@
         <v>30</v>
       </c>
       <c r="O27" s="9">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="Q27" s="1">
         <v>23</v>
       </c>
       <c r="R27" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S27" s="1">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="T27" s="1">
         <v>1</v>
@@ -1604,7 +1604,7 @@
         <v>30</v>
       </c>
       <c r="O28" s="9">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="1">
         <v>24</v>
@@ -1613,7 +1613,7 @@
         <v>4</v>
       </c>
       <c r="S28" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="T28" s="1">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>31</v>
       </c>
       <c r="O29" s="9">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="Q29" s="1">
         <v>25</v>
@@ -1642,7 +1642,7 @@
         <v>4</v>
       </c>
       <c r="S29" s="1">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="T29" s="1">
         <v>1</v>
@@ -1662,7 +1662,7 @@
         <v>31</v>
       </c>
       <c r="O30" s="9">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="Q30" s="1">
         <v>26</v>
@@ -1671,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="S30" s="1">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="T30" s="1">
         <v>1</v>
@@ -1691,16 +1691,16 @@
         <v>31</v>
       </c>
       <c r="O31" s="9">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="Q31" s="1">
         <v>27</v>
       </c>
       <c r="R31" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S31" s="1">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="T31" s="1">
         <v>1</v>
@@ -1720,16 +1720,16 @@
         <v>31</v>
       </c>
       <c r="O32" s="9">
-        <v>230</v>
+        <v>7</v>
       </c>
       <c r="Q32" s="1">
         <v>28</v>
       </c>
       <c r="R32" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S32" s="1">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="T32" s="1">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>31</v>
       </c>
       <c r="O33" s="9">
-        <v>249</v>
+        <v>6</v>
       </c>
       <c r="Q33" s="1">
         <v>29</v>
@@ -1758,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="S33" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T33" s="1">
         <v>1</v>
@@ -1778,7 +1778,7 @@
         <v>30</v>
       </c>
       <c r="O34" s="9">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="Q34" s="1">
         <v>30</v>
@@ -1787,7 +1787,7 @@
         <v>5</v>
       </c>
       <c r="S34" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T34" s="1">
         <v>1</v>
@@ -1807,7 +1807,7 @@
         <v>30</v>
       </c>
       <c r="O35" s="9">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="Q35" s="1">
         <v>31</v>
@@ -1816,7 +1816,7 @@
         <v>5</v>
       </c>
       <c r="S35" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T35" s="1">
         <v>1</v>
@@ -1836,7 +1836,7 @@
         <v>31</v>
       </c>
       <c r="O36" s="9">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="Q36" s="1">
         <v>32</v>
@@ -1845,7 +1845,7 @@
         <v>5</v>
       </c>
       <c r="S36" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T36" s="1">
         <v>1</v>
@@ -1865,7 +1865,7 @@
         <v>31</v>
       </c>
       <c r="O37" s="9">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="Q37" s="1">
         <v>33</v>
@@ -1874,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="S37" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="T37" s="1">
         <v>1</v>
@@ -1894,7 +1894,7 @@
         <v>31</v>
       </c>
       <c r="O38" s="9">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="Q38" s="1">
         <v>34</v>
@@ -1903,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="S38" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T38" s="1">
         <v>1</v>
@@ -1923,7 +1923,7 @@
         <v>31</v>
       </c>
       <c r="O39" s="9">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="Q39" s="1">
         <v>35</v>
@@ -1932,7 +1932,7 @@
         <v>5</v>
       </c>
       <c r="S39" s="1">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="T39" s="1">
         <v>1</v>
@@ -1952,7 +1952,7 @@
         <v>31</v>
       </c>
       <c r="O40" s="9">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="Q40" s="1">
         <v>36</v>
@@ -1961,7 +1961,7 @@
         <v>5</v>
       </c>
       <c r="S40" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="T40" s="1">
         <v>1</v>
@@ -1981,7 +1981,7 @@
         <v>30</v>
       </c>
       <c r="O41" s="9">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="Q41" s="1">
         <v>37</v>
@@ -1990,7 +1990,7 @@
         <v>5</v>
       </c>
       <c r="S41" s="1">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="T41" s="1">
         <v>1</v>
@@ -2010,7 +2010,7 @@
         <v>31</v>
       </c>
       <c r="O42" s="9">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="Q42" s="1">
         <v>38</v>
@@ -2019,7 +2019,7 @@
         <v>5</v>
       </c>
       <c r="S42" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="T42" s="1">
         <v>1</v>
@@ -2039,7 +2039,7 @@
         <v>31</v>
       </c>
       <c r="O43" s="9">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="Q43" s="1">
         <v>39</v>
@@ -2048,7 +2048,7 @@
         <v>5</v>
       </c>
       <c r="S43" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="T43" s="1">
         <v>1</v>
@@ -2068,7 +2068,7 @@
         <v>31</v>
       </c>
       <c r="O44" s="9">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="Q44" s="1">
         <v>40</v>
@@ -2077,7 +2077,7 @@
         <v>5</v>
       </c>
       <c r="S44" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T44" s="1">
         <v>1</v>
@@ -2096,7 +2096,7 @@
         <v>5</v>
       </c>
       <c r="S45" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T45" s="1">
         <v>1</v>
@@ -2112,10 +2112,10 @@
         <v>42</v>
       </c>
       <c r="R46" s="1">
-        <v>5</v>
-      </c>
-      <c r="S46" s="1">
-        <v>33</v>
+        <v>6</v>
+      </c>
+      <c r="S46" s="3">
+        <v>25</v>
       </c>
       <c r="T46" s="1">
         <v>1</v>
@@ -2131,10 +2131,10 @@
         <v>43</v>
       </c>
       <c r="R47" s="1">
-        <v>5</v>
-      </c>
-      <c r="S47" s="1">
-        <v>35</v>
+        <v>6</v>
+      </c>
+      <c r="S47" s="3">
+        <v>18</v>
       </c>
       <c r="T47" s="1">
         <v>1</v>
@@ -2153,7 +2153,7 @@
         <v>6</v>
       </c>
       <c r="S48" s="3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T48" s="1">
         <v>1</v>
@@ -2172,7 +2172,7 @@
         <v>6</v>
       </c>
       <c r="S49" s="3">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="T49" s="1">
         <v>1</v>
@@ -2184,18 +2184,10 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
-      <c r="Q50" s="1">
-        <v>46</v>
-      </c>
-      <c r="R50" s="1">
-        <v>6</v>
-      </c>
-      <c r="S50" s="3">
-        <v>22</v>
-      </c>
-      <c r="T50" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
     </row>
     <row r="51" spans="11:20">
       <c r="K51" s="4"/>
@@ -2203,18 +2195,6 @@
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
-      <c r="Q51" s="1">
-        <v>47</v>
-      </c>
-      <c r="R51" s="1">
-        <v>6</v>
-      </c>
-      <c r="S51" s="3">
-        <v>39</v>
-      </c>
-      <c r="T51" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="52" spans="11:20">
       <c r="K52" s="4"/>
@@ -2222,10 +2202,6 @@
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
     </row>
     <row r="53" spans="11:20">
       <c r="K53" s="4"/>

--- a/Query Solving Test/new/Product_material.xlsx
+++ b/Query Solving Test/new/Product_material.xlsx
@@ -642,7 +642,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
